--- a/Excel/Ch. 07. Excel - Binomial Distribution - Cumulative Probability.xlsx
+++ b/Excel/Ch. 07. Excel - Binomial Distribution - Cumulative Probability.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17030"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Costas\Documents\COSTAS - BIBLIO - APER - ENGLISH\BOOK\EXCEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -381,7 +381,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="4"/>
+      <color theme="4" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="161"/>
@@ -501,10 +501,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -535,16 +537,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -554,7 +555,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -872,7 +872,7 @@
   <dimension ref="A2:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -891,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -901,132 +901,132 @@
       <c r="B3" s="2">
         <v>0.5</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="15"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="17"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="17"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="20"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>15</v>
-      </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="22"/>
+        <v>12</v>
+      </c>
+      <c r="G5" s="21"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="23"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="8" t="s">
+      <c r="G6" s="6"/>
+      <c r="H6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="5"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="4"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G7" s="23"/>
-      <c r="H7" s="8" t="s">
+      <c r="G7" s="6"/>
+      <c r="H7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="18"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="5"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="4">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="7">
         <f>_xlfn.BINOM.DIST(a,n,p,TRUE)</f>
-        <v>0.88523852825164795</v>
-      </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="8" t="s">
+        <v>0.86841201782226551</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="18"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="5"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="11"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="8" t="s">
+      <c r="G10" s="6"/>
+      <c r="H10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="18"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="5"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G11" s="10"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="14"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G12" s="3"/>
